--- a/ripplingproject/src/test/resources/testData/TestData.xlsx
+++ b/ripplingproject/src/test/resources/testData/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="14295" windowHeight="4005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>VerifyPhoneOrNumber</t>
   </si>
@@ -24,6 +25,12 @@
   </si>
   <si>
     <t>Only numbers</t>
+  </si>
+  <si>
+    <t>n646738</t>
+  </si>
+  <si>
+    <t>hfdkjS</t>
   </si>
 </sst>
 </file>
@@ -365,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +399,30 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>9234567634</v>
+      </c>
+      <c r="C2">
+        <v>433312466</v>
+      </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>67634</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
